--- a/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch45/xilinximplementaion_layerbased_host_device.xlsx
+++ b/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch45/xilinximplementaion_layerbased_host_device.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="160">
   <si>
     <t>Shape1</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>Launch Count</t>
+  </si>
+  <si>
+    <t>AccumulatedDataMovereOnly(us)</t>
   </si>
   <si>
     <t>Transpose</t>
@@ -2883,13 +2886,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>142</v>
       </c>
@@ -2903,95 +2906,110 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>79166.409</v>
+        <v>78232.2</v>
       </c>
       <c r="E2">
         <v>71175.591</v>
       </c>
       <c r="F2">
+        <v>934.2089999999999</v>
+      </c>
+      <c r="G2">
         <v>150342</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>556757.26</v>
+        <v>554846.0310000001</v>
       </c>
       <c r="E3">
         <v>3875935.74</v>
       </c>
       <c r="F3">
+        <v>1911.229</v>
+      </c>
+      <c r="G3">
         <v>4432693</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4">
         <v>159</v>
       </c>
       <c r="D4">
-        <v>10061950.53900001</v>
+        <v>9494374.15000001</v>
       </c>
       <c r="E4">
         <v>10267411.46099999</v>
       </c>
       <c r="F4">
+        <v>567576.389</v>
+      </c>
+      <c r="G4">
         <v>20329362</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>115249.428</v>
+        <v>114387.127</v>
       </c>
       <c r="E5">
         <v>6006.572</v>
       </c>
       <c r="F5">
+        <v>862.301</v>
+      </c>
+      <c r="G5">
         <v>121256</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3003,75 +3021,87 @@
         <v>35142.912</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>115656</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>1366813.4855</v>
+        <v>1365912.7405</v>
       </c>
       <c r="E7">
         <v>1226496.5145</v>
       </c>
       <c r="F7">
+        <v>900.745</v>
+      </c>
+      <c r="G7">
         <v>2593310</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>1586651.8</v>
+        <v>1349996.396</v>
       </c>
       <c r="E8">
         <v>5913158.2</v>
       </c>
       <c r="F8">
+        <v>236655.404</v>
+      </c>
+      <c r="G8">
         <v>7499810</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>528486.986</v>
+        <v>519626.612</v>
       </c>
       <c r="E9">
         <v>864322.014</v>
       </c>
       <c r="F9">
+        <v>8860.374</v>
+      </c>
+      <c r="G9">
         <v>1392809</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3083,75 +3113,87 @@
         <v>1139417.8785</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>2209611</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>5225403.684</v>
+        <v>4761127.698999999</v>
       </c>
       <c r="E11">
         <v>8366989.316</v>
       </c>
       <c r="F11">
+        <v>464275.985</v>
+      </c>
+      <c r="G11">
         <v>13592393</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>3850704.119</v>
+        <v>3283350.284</v>
       </c>
       <c r="E12">
         <v>3043514.881000001</v>
       </c>
       <c r="F12">
+        <v>567353.8350000001</v>
+      </c>
+      <c r="G12">
         <v>6894219</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>7470496.452</v>
+        <v>6335665.560999999</v>
       </c>
       <c r="E13">
         <v>6095753.548</v>
       </c>
       <c r="F13">
+        <v>1134830.891</v>
+      </c>
+      <c r="G13">
         <v>13566250</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -3163,15 +3205,18 @@
         <v>1259.721</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>280237</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -3183,15 +3228,18 @@
         <v>302517.0855</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>1380988</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -3203,6 +3251,9 @@
         <v>2789758.524</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>2836472</v>
       </c>
     </row>
